--- a/Luban/Datas/Buff.xlsx
+++ b/Luban/Datas/Buff.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GameCreate\Project_Card\Luban\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD1D521A-CDF7-47C0-97DF-4AD750590247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95F748DD-D392-4C5A-9A06-2C83D2207DCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2832" yWindow="4536" windowWidth="20748" windowHeight="10812" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
   <si>
     <t>##var</t>
   </si>
@@ -131,6 +131,14 @@
   </si>
   <si>
     <t>buff的描述</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳过行动</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkipAction</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -276,7 +284,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -347,6 +355,9 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -624,8 +635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -800,10 +811,25 @@
     </row>
     <row r="8" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="5"/>
-      <c r="B8" s="11"/>
+      <c r="B8" s="11">
+        <v>1004</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>31</v>
+      </c>
       <c r="D8" s="27"/>
-      <c r="E8" s="16"/>
-      <c r="G8" s="4"/>
+      <c r="E8" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="4">
+        <v>1</v>
+      </c>
+      <c r="H8" s="4">
+        <v>20</v>
+      </c>
     </row>
     <row r="9" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="5"/>
@@ -1030,13 +1056,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="1"/>
-  <pixelatorList sheetStid="2"/>
-</pixelators>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <woProps xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <woSheetsProps>
     <woSheetProps sheetStid="1" interlineOnOff="0" interlineColor="0" isDbSheet="0" isDashBoardSheet="0" isDbDashBoardSheet="0" isFlexPaperSheet="0">
@@ -1050,8 +1069,15 @@
 </woProps>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="1"/>
+  <pixelatorList sheetStid="2"/>
+</pixelators>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -1060,7 +1086,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
